--- a/Data/EC/NIT-8901113111.xlsx
+++ b/Data/EC/NIT-8901113111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9143E56A-2A1F-4D00-9EBE-36E3B9E6D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF8E929-74C1-4363-80BC-ECE43995F635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6C63E30-9D0E-4D33-966B-8313A6154DF5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE81B5EE-AEF1-495E-AF71-514D51E11019}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="114">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,286 +65,286 @@
     <t>CC</t>
   </si>
   <si>
+    <t>3829363</t>
+  </si>
+  <si>
+    <t>CARLOS MARTINEZ ORTIZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>73139151</t>
   </si>
   <si>
     <t>JAVIER ENRIQUE RUIZ GARCES</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
+    <t>1047467102</t>
+  </si>
+  <si>
+    <t>JAIME ANDRES AYALA ARAUJO</t>
+  </si>
+  <si>
+    <t>1143345154</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO RODRIGUEZ MAJUL</t>
+  </si>
+  <si>
+    <t>52694175</t>
+  </si>
+  <si>
+    <t>MARLIS ISABEL RODRIGUEZ SULABRAN</t>
   </si>
   <si>
     <t>1051656675</t>
   </si>
   <si>
     <t>MARIA MONICA MARTINEZ NAVARRO</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>52694175</t>
-  </si>
-  <si>
-    <t>MARLIS ISABEL RODRIGUEZ SULABRAN</t>
-  </si>
-  <si>
-    <t>3829363</t>
-  </si>
-  <si>
-    <t>CARLOS MARTINEZ ORTIZ</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>1047467102</t>
-  </si>
-  <si>
-    <t>JAIME ANDRES AYALA ARAUJO</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1143345154</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO RODRIGUEZ MAJUL</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -758,7 +758,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1883F057-B3A4-A6A9-C6AD-60BDDCC58CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB24DAAF-4A07-64FC-AB4E-8EDECB19AAAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,8 +1109,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC25FB3-196D-4EE5-9514-C4C11D2A577E}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0440C9E9-4905-4BDD-B968-9792D4F6ADBA}">
+  <dimension ref="B2:J143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1216,7 +1216,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2727128</v>
+        <v>3776977</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1287,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1310,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1333,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1347,16 +1347,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>28124</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1370,16 +1370,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1393,16 +1393,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1416,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1439,16 +1439,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1462,16 +1462,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1485,16 +1485,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1508,16 +1508,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1531,16 +1531,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1554,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1577,16 +1577,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1600,16 +1600,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1623,16 +1623,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1646,16 +1646,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1669,16 +1669,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1692,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1715,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1738,16 +1738,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1761,16 +1761,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1784,16 +1784,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1807,16 +1807,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1830,16 +1830,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1853,16 +1853,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1876,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1899,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1922,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1945,13 +1945,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1968,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1991,13 +1991,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2014,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2037,13 +2037,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2060,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2083,13 +2083,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2106,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2129,13 +2129,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2152,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2175,13 +2175,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2198,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2221,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2244,13 +2244,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2267,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2290,19 +2290,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2313,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2336,19 +2336,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2359,19 +2359,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F63" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2382,19 +2382,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F64" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2405,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F65" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2428,10 +2428,10 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>60</v>
@@ -2451,10 +2451,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>61</v>
@@ -2474,10 +2474,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>62</v>
@@ -2497,10 +2497,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>63</v>
@@ -2520,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>64</v>
@@ -2543,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>65</v>
@@ -2566,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>66</v>
@@ -2589,10 +2589,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>67</v>
@@ -2612,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>68</v>
@@ -2635,16 +2635,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2658,16 +2658,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2681,16 +2681,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2704,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G78" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2727,16 +2727,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2750,16 +2750,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2773,16 +2773,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2796,16 +2796,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2819,16 +2819,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2842,16 +2842,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2865,16 +2865,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2888,19 +2888,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F86" s="18">
-        <v>36341</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2911,19 +2911,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F87" s="18">
-        <v>36341</v>
+        <v>24640</v>
       </c>
       <c r="G87" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2934,16 +2934,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2957,16 +2957,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2980,16 +2980,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3003,16 +3003,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3026,16 +3026,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3049,16 +3049,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3072,16 +3072,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3095,16 +3095,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3118,16 +3118,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3141,16 +3141,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3164,16 +3164,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3187,16 +3187,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3210,16 +3210,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3233,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3256,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3279,19 +3279,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>828118</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3302,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>828118</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3325,19 +3325,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>31601</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3348,75 +3348,765 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="22" t="s">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F107" s="24">
-        <v>28124</v>
-      </c>
-      <c r="G107" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
+      <c r="E107" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G107" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G108" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G109" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G110" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G111" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G112" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G113" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G114" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G115" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G116" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G117" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G118" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G119" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G120" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G121" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G122" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G123" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G124" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G125" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G126" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G127" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G128" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G129" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G130" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F131" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G131" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G132" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G133" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G134" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G135" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G136" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G137" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="26"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
+      <c r="C142" s="32"/>
+      <c r="H142" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
+      <c r="C143" s="32"/>
+      <c r="H143" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="H142:J142"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8901113111.xlsx
+++ b/Data/EC/NIT-8901113111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF8E929-74C1-4363-80BC-ECE43995F635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B863EDFA-6C6C-4380-8964-1EA3D83AC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE81B5EE-AEF1-495E-AF71-514D51E11019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BDA99075-82AF-4BA5-94D5-0761177B8C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="114">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,286 +65,286 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73139151</t>
+  </si>
+  <si>
+    <t>JAVIER ENRIQUE RUIZ GARCES</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1051656675</t>
+  </si>
+  <si>
+    <t>MARIA MONICA MARTINEZ NAVARRO</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>3829363</t>
   </si>
   <si>
     <t>CARLOS MARTINEZ ORTIZ</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>52694175</t>
+  </si>
+  <si>
+    <t>MARLIS ISABEL RODRIGUEZ SULABRAN</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1047467102</t>
+  </si>
+  <si>
+    <t>JAIME ANDRES AYALA ARAUJO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>73139151</t>
-  </si>
-  <si>
-    <t>JAVIER ENRIQUE RUIZ GARCES</t>
+    <t>1143345154</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO RODRIGUEZ MAJUL</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
   </si>
   <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047467102</t>
-  </si>
-  <si>
-    <t>JAIME ANDRES AYALA ARAUJO</t>
-  </si>
-  <si>
-    <t>1143345154</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO RODRIGUEZ MAJUL</t>
-  </si>
-  <si>
-    <t>52694175</t>
-  </si>
-  <si>
-    <t>MARLIS ISABEL RODRIGUEZ SULABRAN</t>
-  </si>
-  <si>
-    <t>1051656675</t>
-  </si>
-  <si>
-    <t>MARIA MONICA MARTINEZ NAVARRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -443,7 +443,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -456,9 +458,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -658,23 +658,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,10 +702,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,7 +758,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB24DAAF-4A07-64FC-AB4E-8EDECB19AAAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5337EE-D07D-9878-4F0E-5627F3818F65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,8 +1109,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0440C9E9-4905-4BDD-B968-9792D4F6ADBA}">
-  <dimension ref="B2:J143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732ED2C2-2669-4100-BE5F-F85266F249B4}">
+  <dimension ref="B2:J113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1216,7 +1216,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3776977</v>
+        <v>2727128</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1287,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1310,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1333,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1347,16 +1347,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>28124</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1370,16 +1370,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1393,16 +1393,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1416,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1439,16 +1439,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1462,16 +1462,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1485,16 +1485,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1508,16 +1508,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1531,16 +1531,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1554,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1577,16 +1577,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1600,16 +1600,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1623,16 +1623,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1646,16 +1646,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1669,16 +1669,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1692,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1715,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1738,16 +1738,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1761,16 +1761,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1784,16 +1784,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1807,16 +1807,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1830,16 +1830,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1853,16 +1853,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1876,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1899,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1922,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1945,13 +1945,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1968,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1991,13 +1991,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2014,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2037,13 +2037,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2060,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2083,13 +2083,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2106,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2129,13 +2129,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2152,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2175,13 +2175,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2198,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2221,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2244,13 +2244,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2267,19 +2267,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2290,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2313,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2336,19 +2336,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2359,19 +2359,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2405,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2428,19 +2428,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2451,10 +2451,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>61</v>
@@ -2474,10 +2474,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>62</v>
@@ -2497,10 +2497,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>63</v>
@@ -2520,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>64</v>
@@ -2543,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>65</v>
@@ -2566,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>66</v>
@@ -2589,10 +2589,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>67</v>
@@ -2612,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>68</v>
@@ -2635,16 +2635,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F75" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2658,16 +2658,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F76" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2681,16 +2681,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F77" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2704,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F78" s="18">
-        <v>24640</v>
+        <v>35112</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2727,16 +2727,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2750,16 +2750,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2773,16 +2773,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2796,16 +2796,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2819,16 +2819,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2842,16 +2842,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2865,16 +2865,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2888,19 +2888,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>24640</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2911,16 +2911,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F87" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2934,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F88" s="18">
-        <v>24640</v>
+        <v>36341</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2957,16 +2957,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2980,16 +2980,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3003,16 +3003,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3026,16 +3026,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3049,16 +3049,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3072,16 +3072,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3095,16 +3095,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3118,16 +3118,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3141,16 +3141,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3164,16 +3164,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3187,16 +3187,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3210,16 +3210,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3233,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F101" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3256,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F102" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3279,19 +3279,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3302,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F104" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>828118</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3325,19 +3325,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>31601</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3348,765 +3348,75 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F106" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" s="17" t="s">
+      <c r="B107" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E107" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G107" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G108" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G109" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G110" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G111" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F107" s="24">
+        <v>28124</v>
+      </c>
+      <c r="G107" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="26"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G112" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="B112" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="H112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G113" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G114" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G115" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G116" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G117" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G118" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G119" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F120" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G120" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G121" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F122" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G122" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F123" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G123" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G124" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F125" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G125" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F126" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G126" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F127" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G127" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F128" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G128" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F129" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G129" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G130" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F131" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G131" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F132" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G132" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G133" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F134" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G134" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G135" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G136" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F137" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G137" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="26"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C142" s="32"/>
-      <c r="H142" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="32" t="s">
+      <c r="B113" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C143" s="32"/>
-      <c r="H143" s="1" t="s">
+      <c r="C113" s="32"/>
+      <c r="H113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
